--- a/src/main/resources/menBoohooCoat.xlsx
+++ b/src/main/resources/menBoohooCoat.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="137">
-  <si>
-    <t>Category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="178">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Image</t>
@@ -32,15 +32,30 @@
     <t>URL</t>
   </si>
   <si>
-    <t>MEN COAT</t>
+    <t>men_boohoo_coat_1</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm57574_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>Boohoo</t>
+  </si>
+  <si>
+    <t>HOMME QUILTED PUFFER WITH HOOD</t>
+  </si>
+  <si>
+    <t>$65.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/homme-quilted-puffer-with-hood/BMM57574.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_2</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm53351_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
-    <t>Boohoo</t>
-  </si>
-  <si>
     <t>BOXY CURVED QUILTED PUFFER</t>
   </si>
   <si>
@@ -50,22 +65,214 @@
     <t>https://ca.boohoo.com/boxy-curved-quilted-puffer/BMM53351.html?color=209</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm72337_sand_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS CROPPED DOUBLE BREASTED TRENCH COAT</t>
+    <t>men_boohoo_coat_3</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm10248_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL SINGLE BREASTED WOOL LOOK OVERCOAT IN BLACK</t>
+  </si>
+  <si>
+    <t>$82.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-single-breasted-wool-look-overcoat-in-black/BMM10248.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_4</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm55432_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>DOUBLE BREASTED LONGLINE VARSITY BADGE OVERCOAT</t>
+  </si>
+  <si>
+    <t>$100.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/double-breasted-longline-varsity-badge-overcoat-/BMM55432.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_5</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm54515_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MID LENGTH PUFFER PARKA</t>
+  </si>
+  <si>
+    <t>$70.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/mid-length-puffer-parka/BMM54515.html?color=209</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_6</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm54710_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY CRACKED PU AVIATOR WITH BORG COLLAR</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-cracked-pu-aviator-with-borg-collar/BMM54710.html?color=186</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_7</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm01678_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MIX AND MATCH SLIM FIT SUIT</t>
+  </si>
+  <si>
+    <t>$32.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/mix-and-match-slim-fit-suit/MAN00512.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_8</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm01657_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SUPER SKINNY CORE GREY SUIT</t>
+  </si>
+  <si>
+    <t>$25.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/super-skinny-core-grey-suit/MAN03147.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_9</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/mzz13946_beige_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SINGLE BREASTED WOOL LOOK OVERCOAT IN BEIGE</t>
   </si>
   <si>
     <t>$66.00</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/plus-cropped-double-breasted-trench-coat/BMM72337.html?color=161</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm72336_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-cropped-double-breasted-trench-coat/BMM72336.html?color=105</t>
+    <t>https://ca.boohoo.com/single-breasted-wool-look-overcoat-in-beige/MZZ13946.html?color=103</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_10</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/mzz13957_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SINGLE BREASTED WOOL MIX OVERCOAT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/single-breasted-wool-mix-overcoat/MZZ13957.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_11</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm65763_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SKINNY FIT PINSTRIPE DOUBLE BREASTED SUIT</t>
+  </si>
+  <si>
+    <t>$40.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/skinny-fit-pinstripe-double-breasted-suit/MAN03215.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_12</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm68080_tan_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SINGLE BREASTED WOOL MIX OVERCOAT WITH HOOD</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/single-breasted-wool-mix-overcoat-with-hood/BMM68080.html?color=166</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_13</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm54513_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SQUARE QUILTED RUCHED PUFFER</t>
+  </si>
+  <si>
+    <t>$63.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/square-quilted-ruched-puffer/BMM54513.html?color=131</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_14</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm54318_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>METALLIC BOXY QUILTED PUFFER</t>
+  </si>
+  <si>
+    <t>$106.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/metallic-boxy-quilted-puffer/BMM54318.html?color=106</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_15</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm59670_mauve_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY SQUARE QUILTED PUFFER WITH HOOD</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-square-quilted-puffer-with-hood/BMM59670.html?color=140</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_16</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm54315_green_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>METALLIC SQUARE QUILTED PUFFER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/metallic-square-quilted-puffer/BMM54315.html?color=130</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_17</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm49650_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SINGLE BREASTED BRUSHED WOOL LOOK BELTED OVERCOAT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/single-breasted-brushed-wool-look-belted-overcoat/BMM49650.html?color=131</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_18</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm45076_light%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -74,19 +281,181 @@
     <t>SKINNY CHECK SUIT</t>
   </si>
   <si>
-    <t>$70.00</t>
-  </si>
-  <si>
     <t>https://ca.boohoo.com/skinny-check-suit/MAN03072.html</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54515_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MID LENGTH PUFFER PARKA</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/mid-length-puffer-parka/BMM54515.html?color=209</t>
+    <t>men_boohoo_coat_19</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm66649_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MAN OVERHEAD HOODED PARKA</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/man-overhead-hooded-parka/BMM66649.html?color=186</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_20</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm01674_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SLIM SUIT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/slim-suit/MAN00511.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_21</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm66646_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/man-overhead-hooded-parka/BMM66646.html?color=209</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_22</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm25180_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL SLIM WAISTCOAT</t>
+  </si>
+  <si>
+    <t>$46.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-slim-waistcoat/BMM25180.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_23</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/mzz26878_tan_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BORG HOODED DUFFLE COAT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/borg-hooded-duffle-coat/MZZ26878.html?color=166</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_24</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm10271_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS DOUBLE BREASTED WOOL LOOK OVERCOAT IN BLACK</t>
+  </si>
+  <si>
+    <t>$99.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-double-breasted-wool-look-overcoat-in-black/BMM10271.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_25</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm51712_red_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY PADDED NYLON EMBROIDERED COLLARED BOMBER</t>
+  </si>
+  <si>
+    <t>$115.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-padded-nylon-embroidered-collared-bomber/BMM51712.html?color=157</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_26</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm47355_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MEMBERS CLUB APPLIQUE VARSITY JACKET</t>
+  </si>
+  <si>
+    <t>$74.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/members-club-applique-varsity-jacket/BMM47355.html?color=564</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_27</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm57573_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/homme-quilted-puffer-with-hood/BMM57573.html?color=106</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_28</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm53350_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-curved-quilted-puffer-/BMM53350.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_29</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm54332_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY MELTON DUFFLE COAT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-melton-duffle-coat/BMM54332.html?color=186</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_30</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm54532_mint_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SHEEN QUILTED NYLON PUFFER WITH HOOD</t>
+  </si>
+  <si>
+    <t>$60.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/sheen-quilted-nylon-puffer-with-hood/BMM54532.html?color=143</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_31</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm54530_petrol_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/sheen-quilted-nylon-puffer-with-hood/BMM54530.html?color=440</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_32</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm09110_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>DOUBLE BREASTED TRENCH OVERCOAT IN CHOCOLATE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/double-breasted-trench-overcoat-in-chocolate/BMM09110.html?color=186</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_33</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm63904_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -101,328 +470,82 @@
     <t>https://ca.boohoo.com/wool-look-overcoat-with-metal-clasp/BMM63904.html?color=109</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm01657_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SUPER SKINNY CORE GREY SUIT</t>
-  </si>
-  <si>
-    <t>$25.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/super-skinny-core-grey-suit/MAN03147.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm55432_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>DOUBLE BREASTED LONGLINE VARSITY BADGE OVERCOAT</t>
-  </si>
-  <si>
-    <t>$100.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/double-breasted-longline-varsity-badge-overcoat-/BMM55432.html?color=124</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/mzz13957_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SINGLE BREASTED WOOL MIX OVERCOAT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/single-breasted-wool-mix-overcoat/MZZ13957.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54710_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY CRACKED PU AVIATOR WITH BORG COLLAR</t>
-  </si>
-  <si>
-    <t>$65.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-cracked-pu-aviator-with-borg-collar/BMM54710.html?color=186</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm68080_tan_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SINGLE BREASTED WOOL MIX OVERCOAT WITH HOOD</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/single-breasted-wool-mix-overcoat-with-hood/BMM68080.html?color=166</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54513_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SQUARE QUILTED RUCHED PUFFER</t>
-  </si>
-  <si>
-    <t>$63.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/square-quilted-ruched-puffer/BMM54513.html?color=131</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54318_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>METALLIC BOXY QUILTED PUFFER</t>
-  </si>
-  <si>
-    <t>$106.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/metallic-boxy-quilted-puffer/BMM54318.html?color=106</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54530_petrol_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SHEEN QUILTED NYLON PUFFER WITH HOOD</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/sheen-quilted-nylon-puffer-with-hood/BMM54530.html?color=440</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm59670_mauve_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY SQUARE QUILTED PUFFER WITH HOOD</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-square-quilted-puffer-with-hood/BMM59670.html?color=140</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54315_green_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>METALLIC SQUARE QUILTED PUFFER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/metallic-square-quilted-puffer/BMM54315.html?color=130</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54316_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>METALLIC QUILTED PUFFER BOMBER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/metallic-quilted-puffer-bomber/BMM54316.html?color=209</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54677_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY HEAVY BOUCLE HARRINGTON WITH POCKETS</t>
-  </si>
-  <si>
-    <t>$73.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-heavy-boucle-harrington-with-pockets/BMM54677.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm66649_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MAN OVERHEAD HOODED PARKA</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/man-overhead-hooded-parka/BMM66649.html?color=186</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm66646_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/man-overhead-hooded-parka/BMM66646.html?color=209</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/mzz26878_tan_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BORG HOODED DUFFLE COAT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/borg-hooded-duffle-coat/MZZ26878.html?color=166</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm53350_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-curved-quilted-puffer-/BMM53350.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm25180_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL SLIM WAISTCOAT</t>
-  </si>
-  <si>
-    <t>$46.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-slim-waistcoat/BMM25180.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm57574_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>HOMME QUILTED PUFFER WITH HOOD</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/homme-quilted-puffer-with-hood/BMM57574.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54332_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY MELTON DUFFLE COAT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-melton-duffle-coat/BMM54332.html?color=186</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm10271_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS DOUBLE BREASTED WOOL LOOK OVERCOAT IN BLACK</t>
-  </si>
-  <si>
-    <t>$99.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-double-breasted-wool-look-overcoat-in-black/BMM10271.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54532_mint_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>$60.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/sheen-quilted-nylon-puffer-with-hood/BMM54532.html?color=143</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54529_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/sheen-quilted-nylon-puffer-with-hood/BMM54529.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm68449_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>QUILTED LONGLINE PUFFER WITH HOOD</t>
-  </si>
-  <si>
-    <t>$91.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/quilted-longline-puffer-with-hood/BMM68449.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm55437_green_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LONGLINE BRUSHED CHECK BELTED OVERCOAT</t>
+    <t>men_boohoo_coat_34</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/mzz63507_tan_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>FAUX FUR LINED SUEDE AVIATOR JACKET</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/faux-fur-lined-suede-aviator-jacket/MZZ63507.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_35</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm68222_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PALM ZIP THROUGH SEQUIN BOMBER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/palm-zip-through-sequin-bomber/BMM68222.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_36</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm54314_pale%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>$86.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/metallic-square-quilted-puffer/BMM54314.html?color=373</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_37</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm71770_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>REGULAR FIT REMOVEABLE HOOD NYLON MOTO JACKET</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/regular-fit-removeable-hood-nylon-moto-jacket/BMM71770.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_38</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm53925_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LIGHTWEIGHT HOODED PARKA</t>
+  </si>
+  <si>
+    <t>$58.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/lightweight-hooded-parka/BMM53925.html?color=131</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_39</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm78266_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>CAMO TWILL UTILITY VEST IN BLACK</t>
   </si>
   <si>
     <t>$116.00</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/longline-brushed-check-belted-overcoat-/BMM55437.html?color=130</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54314_pale%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>$86.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/metallic-square-quilted-puffer/BMM54314.html?color=373</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm53925_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LIGHTWEIGHT HOODED PARKA</t>
-  </si>
-  <si>
-    <t>$58.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/lightweight-hooded-parka/BMM53925.html?color=131</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm55578_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LONGLINE BRUSHED WOOL LOOK BELTED OVERCOAT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/longline-brushed-wool-look-belted-overcoat/BMM55578.html?color=131</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm55430_beige_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SINGLE BREASTED BRUSHED STRIPE OVERCOAT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/single-breasted-brushed-stripe-overcoat-/BMM55430.html?color=103</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54320_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/metallic-boxy-quilted-puffer/BMM54320.html?color=115</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm55579_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>DOUBLE BREASTED SALT &amp; PEPPER OVERCOAT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/double-breasted-salt-pepper-overcoat/BMM55579.html?color=115</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm55433_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/double-breasted-longline-varsity-badge-overcoat-/BMM55433.html?color=148</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm55435_multi_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>DOUBLE BREASTED LONGLINE BRUSHED CHECK OVERCOAT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/double-breasted-longline-brushed-check-overcoat-/BMM55435.html?color=144</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm55428_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SINGLE BREASTED BRUSHED CHECK OVERCOAT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/single-breasted-brushed-check-overcoat-/BMM55428.html?color=109</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54545_taupe_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TIE DYE QUILTED PUFFER WITH HOOD</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tie-dye-quilted-puffer-with-hood/BMM54545.html?color=167</t>
+    <t>https://ca.boohoo.com/camo-twill-utility-vest-in-black/BMM78266.html?color=105</t>
   </si>
 </sst>
 </file>
@@ -467,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -515,782 +638,762 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>90</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>94</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>97</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>103</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>114</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>117</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>120</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>122</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>130</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>134</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s" s="0">
-        <v>135</v>
-      </c>
-      <c r="E41" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="F41" t="s" s="0">
-        <v>136</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/menBoohooCoat.xlsx
+++ b/src/main/resources/menBoohooCoat.xlsx
@@ -170,6 +170,21 @@
     <t>men_boohoo_coat_10</t>
   </si>
   <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm65763_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SKINNY FIT PINSTRIPE DOUBLE BREASTED SUIT</t>
+  </si>
+  <si>
+    <t>$40.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/skinny-fit-pinstripe-double-breasted-suit/MAN03215.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_11</t>
+  </si>
+  <si>
     <t>https://media.boohoo.com/i/boohoo/mzz13957_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
@@ -177,21 +192,6 @@
   </si>
   <si>
     <t>https://ca.boohoo.com/single-breasted-wool-mix-overcoat/MZZ13957.html</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_11</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm65763_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SKINNY FIT PINSTRIPE DOUBLE BREASTED SUIT</t>
-  </si>
-  <si>
-    <t>$40.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/skinny-fit-pinstripe-double-breasted-suit/MAN03215.html</t>
   </si>
   <si>
     <t>men_boohoo_coat_12</t>
@@ -810,27 +810,27 @@
         <v>53</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s" s="0">
         <v>59</v>
@@ -1010,7 +1010,7 @@
         <v>96</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s" s="0">
         <v>97</v>

--- a/src/main/resources/menBoohooCoat.xlsx
+++ b/src/main/resources/menBoohooCoat.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="179">
   <si>
     <t>Id</t>
   </si>
@@ -35,12 +35,27 @@
     <t>men_boohoo_coat_1</t>
   </si>
   <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm53351_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>Boohoo</t>
+  </si>
+  <si>
+    <t>BOXY CURVED QUILTED PUFFER</t>
+  </si>
+  <si>
+    <t>$50.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-curved-quilted-puffer/BMM53351.html?color=209</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_2</t>
+  </si>
+  <si>
     <t>https://media.boohoo.com/i/boohoo/bmm57574_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
-    <t>Boohoo</t>
-  </si>
-  <si>
     <t>HOMME QUILTED PUFFER WITH HOOD</t>
   </si>
   <si>
@@ -50,24 +65,138 @@
     <t>https://ca.boohoo.com/homme-quilted-puffer-with-hood/BMM57574.html?color=105</t>
   </si>
   <si>
-    <t>men_boohoo_coat_2</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm53351_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY CURVED QUILTED PUFFER</t>
-  </si>
-  <si>
-    <t>$50.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-curved-quilted-puffer/BMM53351.html?color=209</t>
-  </si>
-  <si>
     <t>men_boohoo_coat_3</t>
   </si>
   <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm63904_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>WOOL LOOK OVERCOAT WITH METAL CLASP</t>
+  </si>
+  <si>
+    <t>$93.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/wool-look-overcoat-with-metal-clasp/BMM63904.html?color=109</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_4</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm54515_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MID LENGTH PUFFER PARKA</t>
+  </si>
+  <si>
+    <t>$70.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/mid-length-puffer-parka/BMM54515.html?color=209</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_5</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm55432_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>DOUBLE BREASTED LONGLINE VARSITY BADGE OVERCOAT</t>
+  </si>
+  <si>
+    <t>$100.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/double-breasted-longline-varsity-badge-overcoat-/BMM55432.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_6</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm01678_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MIX AND MATCH SLIM FIT SUIT</t>
+  </si>
+  <si>
+    <t>$32.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/mix-and-match-slim-fit-suit/MAN00512.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_7</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm01657_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SUPER SKINNY CORE GREY SUIT</t>
+  </si>
+  <si>
+    <t>$25.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/super-skinny-core-grey-suit/MAN03147.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_8</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm54710_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY CRACKED PU AVIATOR WITH BORG COLLAR</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-cracked-pu-aviator-with-borg-collar/BMM54710.html?color=186</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_9</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/mzz13957_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SINGLE BREASTED WOOL MIX OVERCOAT</t>
+  </si>
+  <si>
+    <t>$66.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/single-breasted-wool-mix-overcoat/MZZ13957.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_10</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm67283_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>COLOUR BLOCK ZIP THROUGH CAGOULE</t>
+  </si>
+  <si>
+    <t>$40.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/colour-block-zip-through-cagoule/BMM67283.html?color=131</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_11</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/mzz13946_beige_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SINGLE BREASTED WOOL LOOK OVERCOAT IN BEIGE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/single-breasted-wool-look-overcoat-in-beige/MZZ13946.html?color=103</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_12</t>
+  </si>
+  <si>
     <t>https://media.boohoo.com/i/boohoo/bmm10248_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
@@ -80,94 +209,157 @@
     <t>https://ca.boohoo.com/tall-single-breasted-wool-look-overcoat-in-black/BMM10248.html?color=105</t>
   </si>
   <si>
-    <t>men_boohoo_coat_4</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm55432_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>DOUBLE BREASTED LONGLINE VARSITY BADGE OVERCOAT</t>
-  </si>
-  <si>
-    <t>$100.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/double-breasted-longline-varsity-badge-overcoat-/BMM55432.html?color=124</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_5</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54515_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MID LENGTH PUFFER PARKA</t>
-  </si>
-  <si>
-    <t>$70.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/mid-length-puffer-parka/BMM54515.html?color=209</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_6</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54710_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY CRACKED PU AVIATOR WITH BORG COLLAR</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-cracked-pu-aviator-with-borg-collar/BMM54710.html?color=186</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_7</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm01678_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MIX AND MATCH SLIM FIT SUIT</t>
-  </si>
-  <si>
-    <t>$32.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/mix-and-match-slim-fit-suit/MAN00512.html</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_8</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm01657_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SUPER SKINNY CORE GREY SUIT</t>
-  </si>
-  <si>
-    <t>$25.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/super-skinny-core-grey-suit/MAN03147.html</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_9</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/mzz13946_beige_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SINGLE BREASTED WOOL LOOK OVERCOAT IN BEIGE</t>
-  </si>
-  <si>
-    <t>$66.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/single-breasted-wool-look-overcoat-in-beige/MZZ13946.html?color=103</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_10</t>
+    <t>men_boohoo_coat_13</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm68080_tan_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SINGLE BREASTED WOOL MIX OVERCOAT WITH HOOD</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/single-breasted-wool-mix-overcoat-with-hood/BMM68080.html?color=166</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_14</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm54513_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SQUARE QUILTED RUCHED PUFFER</t>
+  </si>
+  <si>
+    <t>$63.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/square-quilted-ruched-puffer/BMM54513.html?color=131</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_15</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm54318_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>METALLIC BOXY QUILTED PUFFER</t>
+  </si>
+  <si>
+    <t>$106.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/metallic-boxy-quilted-puffer/BMM54318.html?color=106</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_16</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm59670_mauve_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY SQUARE QUILTED PUFFER WITH HOOD</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-square-quilted-puffer-with-hood/BMM59670.html?color=140</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_17</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm54315_green_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>METALLIC SQUARE QUILTED PUFFER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/metallic-square-quilted-puffer/BMM54315.html?color=130</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_18</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm49650_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SINGLE BREASTED BRUSHED WOOL LOOK BELTED OVERCOAT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/single-breasted-brushed-wool-look-belted-overcoat/BMM49650.html?color=131</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_19</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm66649_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MAN OVERHEAD HOODED PARKA</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/man-overhead-hooded-parka/BMM66649.html?color=186</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_20</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm66646_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/man-overhead-hooded-parka/BMM66646.html?color=209</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_21</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/mzz26878_tan_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BORG HOODED DUFFLE COAT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/borg-hooded-duffle-coat/MZZ26878.html?color=166</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_22</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm25180_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL SLIM WAISTCOAT</t>
+  </si>
+  <si>
+    <t>$46.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-slim-waistcoat/BMM25180.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_23</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm01674_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SLIM SUIT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/slim-suit/MAN00511.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_24</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm45076_light%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SKINNY CHECK SUIT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/skinny-check-suit/MAN03072.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_25</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm65763_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -176,207 +368,81 @@
     <t>SKINNY FIT PINSTRIPE DOUBLE BREASTED SUIT</t>
   </si>
   <si>
-    <t>$40.00</t>
-  </si>
-  <si>
     <t>https://ca.boohoo.com/skinny-fit-pinstripe-double-breasted-suit/MAN03215.html</t>
   </si>
   <si>
-    <t>men_boohoo_coat_11</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/mzz13957_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SINGLE BREASTED WOOL MIX OVERCOAT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/single-breasted-wool-mix-overcoat/MZZ13957.html</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_12</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm68080_tan_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SINGLE BREASTED WOOL MIX OVERCOAT WITH HOOD</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/single-breasted-wool-mix-overcoat-with-hood/BMM68080.html?color=166</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_13</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54513_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SQUARE QUILTED RUCHED PUFFER</t>
-  </si>
-  <si>
-    <t>$63.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/square-quilted-ruched-puffer/BMM54513.html?color=131</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_14</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54318_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>METALLIC BOXY QUILTED PUFFER</t>
-  </si>
-  <si>
-    <t>$106.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/metallic-boxy-quilted-puffer/BMM54318.html?color=106</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_15</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm59670_mauve_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY SQUARE QUILTED PUFFER WITH HOOD</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-square-quilted-puffer-with-hood/BMM59670.html?color=140</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_16</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54315_green_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>METALLIC SQUARE QUILTED PUFFER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/metallic-square-quilted-puffer/BMM54315.html?color=130</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_17</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm49650_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SINGLE BREASTED BRUSHED WOOL LOOK BELTED OVERCOAT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/single-breasted-brushed-wool-look-belted-overcoat/BMM49650.html?color=131</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_18</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm45076_light%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SKINNY CHECK SUIT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/skinny-check-suit/MAN03072.html</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_19</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm66649_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MAN OVERHEAD HOODED PARKA</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/man-overhead-hooded-parka/BMM66649.html?color=186</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_20</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm01674_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SLIM SUIT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/slim-suit/MAN00511.html</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_21</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm66646_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/man-overhead-hooded-parka/BMM66646.html?color=209</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_22</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm25180_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL SLIM WAISTCOAT</t>
-  </si>
-  <si>
-    <t>$46.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-slim-waistcoat/BMM25180.html</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_23</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/mzz26878_tan_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BORG HOODED DUFFLE COAT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/borg-hooded-duffle-coat/MZZ26878.html?color=166</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_24</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm10271_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS DOUBLE BREASTED WOOL LOOK OVERCOAT IN BLACK</t>
-  </si>
-  <si>
-    <t>$99.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-double-breasted-wool-look-overcoat-in-black/BMM10271.html?color=105</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_25</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm51712_red_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY PADDED NYLON EMBROIDERED COLLARED BOMBER</t>
-  </si>
-  <si>
-    <t>$115.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-padded-nylon-embroidered-collared-bomber/BMM51712.html?color=157</t>
-  </si>
-  <si>
     <t>men_boohoo_coat_26</t>
   </si>
   <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm57573_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/homme-quilted-puffer-with-hood/BMM57573.html?color=106</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_27</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm53350_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-curved-quilted-puffer-/BMM53350.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_28</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm54332_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY MELTON DUFFLE COAT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-melton-duffle-coat/BMM54332.html?color=186</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_29</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm54532_mint_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SHEEN QUILTED NYLON PUFFER WITH HOOD</t>
+  </si>
+  <si>
+    <t>$60.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/sheen-quilted-nylon-puffer-with-hood/BMM54532.html?color=143</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_30</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm54530_petrol_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/sheen-quilted-nylon-puffer-with-hood/BMM54530.html?color=440</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_31</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm57371_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BASIC NYLON BOMBER JACKET</t>
+  </si>
+  <si>
+    <t>$58.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/basic-nylon-bomber-jacket/BMM57371.html?color=148</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_32</t>
+  </si>
+  <si>
     <t>https://media.boohoo.com/i/boohoo/bmm47355_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
@@ -389,163 +455,100 @@
     <t>https://ca.boohoo.com/members-club-applique-varsity-jacket/BMM47355.html?color=564</t>
   </si>
   <si>
-    <t>men_boohoo_coat_27</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm57573_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/homme-quilted-puffer-with-hood/BMM57573.html?color=106</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_28</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm53350_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-curved-quilted-puffer-/BMM53350.html</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_29</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54332_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY MELTON DUFFLE COAT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-melton-duffle-coat/BMM54332.html?color=186</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_30</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54532_mint_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SHEEN QUILTED NYLON PUFFER WITH HOOD</t>
-  </si>
-  <si>
-    <t>$60.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/sheen-quilted-nylon-puffer-with-hood/BMM54532.html?color=143</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_31</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54530_petrol_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/sheen-quilted-nylon-puffer-with-hood/BMM54530.html?color=440</t>
-  </si>
-  <si>
-    <t>men_boohoo_coat_32</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm09110_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>DOUBLE BREASTED TRENCH OVERCOAT IN CHOCOLATE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/double-breasted-trench-overcoat-in-chocolate/BMM09110.html?color=186</t>
-  </si>
-  <si>
     <t>men_boohoo_coat_33</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm63904_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>WOOL LOOK OVERCOAT WITH METAL CLASP</t>
-  </si>
-  <si>
-    <t>$93.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/wool-look-overcoat-with-metal-clasp/BMM63904.html?color=109</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm47294_light%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>RELAXED ZIP BLAZER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/relaxed-zip-blazer/BMM47294.html</t>
   </si>
   <si>
     <t>men_boohoo_coat_34</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/mzz63507_tan_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>FAUX FUR LINED SUEDE AVIATOR JACKET</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/faux-fur-lined-suede-aviator-jacket/MZZ63507.html</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm54314_pale%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>$86.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/metallic-square-quilted-puffer/BMM54314.html?color=373</t>
   </si>
   <si>
     <t>men_boohoo_coat_35</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm68222_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PALM ZIP THROUGH SEQUIN BOMBER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/palm-zip-through-sequin-bomber/BMM68222.html?color=105</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm53925_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LIGHTWEIGHT HOODED PARKA</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/lightweight-hooded-parka/BMM53925.html?color=131</t>
   </si>
   <si>
     <t>men_boohoo_coat_36</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54314_pale%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>$86.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/metallic-square-quilted-puffer/BMM54314.html?color=373</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm55578_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LONGLINE BRUSHED WOOL LOOK BELTED OVERCOAT</t>
+  </si>
+  <si>
+    <t>$116.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/longline-brushed-wool-look-belted-overcoat/BMM55578.html?color=131</t>
   </si>
   <si>
     <t>men_boohoo_coat_37</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm71770_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>REGULAR FIT REMOVEABLE HOOD NYLON MOTO JACKET</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/regular-fit-removeable-hood-nylon-moto-jacket/BMM71770.html?color=105</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm54320_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/metallic-boxy-quilted-puffer/BMM54320.html?color=115</t>
   </si>
   <si>
     <t>men_boohoo_coat_38</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm53925_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LIGHTWEIGHT HOODED PARKA</t>
-  </si>
-  <si>
-    <t>$58.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/lightweight-hooded-parka/BMM53925.html?color=131</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm55430_beige_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SINGLE BREASTED BRUSHED STRIPE OVERCOAT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/single-breasted-brushed-stripe-overcoat-/BMM55430.html?color=103</t>
   </si>
   <si>
     <t>men_boohoo_coat_39</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm78266_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>CAMO TWILL UTILITY VEST IN BLACK</t>
-  </si>
-  <si>
-    <t>$116.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/camo-twill-utility-vest-in-black/BMM78266.html?color=105</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm67851_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS NYLON AVIATOR BOMBER WITH BORG COLLAR</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-nylon-aviator-bomber-with-borg-collar/BMM67851.html?color=135</t>
+  </si>
+  <si>
+    <t>men_boohoo_coat_40</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm55579_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>DOUBLE BREASTED SALT &amp; PEPPER OVERCOAT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/double-breasted-salt-pepper-overcoat/BMM55579.html?color=115</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -730,47 +733,47 @@
         <v>34</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>45</v>
@@ -850,27 +853,27 @@
         <v>62</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s" s="0">
         <v>68</v>
@@ -910,107 +913,107 @@
         <v>76</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>49</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s" s="0">
         <v>97</v>
@@ -1027,70 +1030,70 @@
         <v>8</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s" s="0">
         <v>114</v>
@@ -1110,38 +1113,38 @@
         <v>117</v>
       </c>
       <c r="E26" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s" s="0">
         <v>118</v>
-      </c>
-      <c r="F26" t="s" s="0">
-        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="C27" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F27" t="s" s="0">
         <v>121</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="E27" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="F27" t="s" s="0">
-        <v>124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>8</v>
@@ -1150,107 +1153,107 @@
         <v>9</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s" s="0">
         <v>15</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="E30" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="C30" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s" s="0">
+      <c r="F30" t="s" s="0">
         <v>133</v>
-      </c>
-      <c r="E30" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s" s="0">
-        <v>134</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="C31" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s" s="0">
         <v>136</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s" s="0">
-        <v>137</v>
-      </c>
-      <c r="E31" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="F31" t="s" s="0">
-        <v>139</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="E32" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="F32" t="s" s="0">
         <v>141</v>
-      </c>
-      <c r="C32" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s" s="0">
-        <v>137</v>
-      </c>
-      <c r="E32" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F32" t="s" s="0">
-        <v>142</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B33" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="C33" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="C33" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s" s="0">
+      <c r="E33" t="s" s="0">
         <v>145</v>
-      </c>
-      <c r="E33" t="s" s="0">
-        <v>49</v>
       </c>
       <c r="F33" t="s" s="0">
         <v>146</v>
@@ -1270,64 +1273,64 @@
         <v>149</v>
       </c>
       <c r="E34" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s" s="0">
         <v>150</v>
-      </c>
-      <c r="F34" t="s" s="0">
-        <v>151</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B35" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="C35" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="E35" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="C35" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s" s="0">
+      <c r="F35" t="s" s="0">
         <v>154</v>
-      </c>
-      <c r="E35" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="F35" t="s" s="0">
-        <v>155</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B36" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="C36" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="C36" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s" s="0">
+      <c r="E36" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F36" t="s" s="0">
         <v>158</v>
-      </c>
-      <c r="E36" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="F36" t="s" s="0">
-        <v>159</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B37" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="B37" t="s" s="0">
+      <c r="C37" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s" s="0">
         <v>161</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s" s="0">
-        <v>80</v>
       </c>
       <c r="E37" t="s" s="0">
         <v>162</v>
@@ -1347,53 +1350,73 @@
         <v>8</v>
       </c>
       <c r="D38" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s" s="0">
         <v>166</v>
-      </c>
-      <c r="E38" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="F38" t="s" s="0">
-        <v>167</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="B39" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="B39" t="s" s="0">
+      <c r="C39" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s" s="0">
         <v>169</v>
       </c>
-      <c r="C39" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s" s="0">
+      <c r="E39" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F39" t="s" s="0">
         <v>170</v>
-      </c>
-      <c r="E39" t="s" s="0">
-        <v>171</v>
-      </c>
-      <c r="F39" t="s" s="0">
-        <v>172</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="B40" t="s" s="0">
+      <c r="E40" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="C40" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s" s="0">
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="E40" t="s" s="0">
+      <c r="B41" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="F40" t="s" s="0">
+      <c r="C41" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s" s="0">
         <v>177</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
